--- a/Ch.9/project7/example_data.xlsx
+++ b/Ch.9/project7/example_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99ca549cd8e01d51/바탕 화면/Book/qr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99ca549cd8e01d51/바탕 화면/Book/mystudy/project7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_96C8DDF09F54BD3D2A230B23F921ED1F238D5A20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA7DBB2C-0830-493D-B75B-144668F8483B}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_96C8DDF09F54BD3D2A230B23F921ED1F238D5A20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7FDAA06-379A-4E12-9D37-C549E2955A7F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="3960" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,31 +20,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>https://open.kakao.com/o/g2OIF42g</t>
+  </si>
+  <si>
+    <r>
+      <t>https://www.youtube.com/@</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메이클래스</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Data</t>
-  </si>
-  <si>
-    <t>https://www.example.com</t>
-  </si>
-  <si>
-    <t>Contact: John Doe, johndoe@example.com</t>
-  </si>
-  <si>
-    <t>Product Code: 12345</t>
-  </si>
-  <si>
-    <t>Event: Conference 2024, Seat No: A12</t>
-  </si>
-  <si>
-    <t>Special Offer: Discount 20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,22 +59,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -92,38 +100,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -136,6 +130,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,49 +423,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="17.25" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" thickTop="1">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>